--- a/survey/PhenomX Health Women's Survey (All Responses).xlsx
+++ b/survey/PhenomX Health Women's Survey (All Responses).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="380">
   <si>
     <t>Timestamp</t>
   </si>
@@ -166,6 +166,39 @@
     <t>15. In which country do you live ?</t>
   </si>
   <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfation?  [Self-information]</t>
+  </si>
+  <si>
+    <t>5a). Would you want to know if you are in the peri-menopause/menopause/post-menopause phase, if it could help resolve your symptoms?</t>
+  </si>
+  <si>
+    <t>9. Are you comfortable with doing the necessary tests at home instead of going somewhere for them?  [Finger-prick blood test]</t>
+  </si>
+  <si>
+    <t>9. Are you comfortable with doing the necessary tests at home instead of going somewhere for them?  [Other]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfation?  [Friends and Family advice]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfation?  [General Practitioner]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfation?  [Gynaecologyst]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfation?  [Nutritionist]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfation?  [Naturopath]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfation?  [Sports coach]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfation?  [Phycologyst]</t>
+  </si>
+  <si>
     <t>Prepare myself for the upcoming health challenge, I believe it defines your quality of life at later stage</t>
   </si>
   <si>
@@ -595,6 +628,9 @@
     <t>Italy</t>
   </si>
   <si>
+    <t>michelc@drit.ml</t>
+  </si>
+  <si>
     <t>8a. Do you enjoy its look and feel?</t>
   </si>
   <si>
@@ -613,28 +649,55 @@
     <t>10. Are you comfortable with doing the necessary tests at home instead of going somewhere for them?  [Skin swab (Microbiome assessment)]</t>
   </si>
   <si>
+    <t>10. Are you comfortable with doing the necessary tests at home instead of going somewhere for them?  [Finger-prick blood test]</t>
+  </si>
+  <si>
+    <t>11. What is the value to you for doing home test? (select all that apply)</t>
+  </si>
+  <si>
+    <t>12. Which targets of your personalized diet would you value most?</t>
+  </si>
+  <si>
+    <t>13. Please estimate your monthly spending on health (health insurance, doctors, medical tests, nutritionists, supplements, etc).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. What would be your comfortable monthly subscription price for such a dream app. </t>
+  </si>
+  <si>
+    <t>15. Could you please share in what year you were born?</t>
+  </si>
+  <si>
+    <t>17. Are you willing to share your ideas further? We would be delighted to give you 3 months access to our app once it is ready.  Please leave us your email.</t>
+  </si>
+  <si>
+    <t>16. In which country do you live ?</t>
+  </si>
+  <si>
     <t>10. Are you comfortable with doing the necessary tests at home instead of going somewhere for them?  [Other]</t>
   </si>
   <si>
-    <t>11. What is the value to you for doing home test? (select all that apply)</t>
-  </si>
-  <si>
-    <t>12. Which targets of your personalized diet would you value most?</t>
-  </si>
-  <si>
-    <t>13. Please estimate your monthly spending on health (health insurance, doctors, medical tests, nutritionists, supplements, etc).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. What would be your comfortable monthly subscription price for such a dream app. </t>
-  </si>
-  <si>
-    <t>15. Could you please share in what year you were born?</t>
-  </si>
-  <si>
-    <t>17. Are you willing to share your ideas further? We would be delighted to give you 3 months access to our app once it is ready.  Please leave us your email.</t>
-  </si>
-  <si>
-    <t>16. In which country do you live ?</t>
+    <t>3a) What were the main reasons of your MAJOR dissatisfaction? [Self information]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfaction? [Friends and Family]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfaction? [General Practitioner]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfaction? [Gynaecologyst]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfaction? [Nutritionist]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfaction? [Naturopath]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfaction? [Sports coach]</t>
+  </si>
+  <si>
+    <t>3a) What were the main reasons of your MAJOR dissatisfaction? [Phycologyst]</t>
   </si>
   <si>
     <t>Hot flashes, Headaches, Brain fog, Anxiety and/or panic attacks, Heart palpitations</t>
@@ -1032,6 +1095,69 @@
   </si>
   <si>
     <t>Night sweats, Headaches, Brain fog, Low energy, fatigue, Bladder pain, frequent urination, Loss of skin elasticity, sagging skin, Vaginal dryness</t>
+  </si>
+  <si>
+    <t>Low energy, fatigue, Loss of skin elasticity, sagging skin, Dry skin</t>
+  </si>
+  <si>
+    <t>Mandelli.silv@gmail.com</t>
+  </si>
+  <si>
+    <t>Thank you too</t>
+  </si>
+  <si>
+    <t>Hot flashes, Headaches, Low energy, fatigue</t>
+  </si>
+  <si>
+    <t>I am aware of general healthy ways and try to stick to them, I follow advice from my doctors</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Night sweats, Hot flashes, Mood swings, Heart palpitations, Low energy, fatigue</t>
+  </si>
+  <si>
+    <t>I could not see well as the youtube screen could not be enlarged</t>
+  </si>
+  <si>
+    <t>More visuals on mobile will help</t>
+  </si>
+  <si>
+    <t>Fast results addressing current issues, Preventive plan, Advice on healthy recipes</t>
+  </si>
+  <si>
+    <t>tram.trinh@vitanlink.com</t>
+  </si>
+  <si>
+    <t>You are welcome, such an app could be a great preventive tool for women who believe they are not yet even in pre menopause, while this stage can come more quickly than thought, and entails symptoms that usually are not even diagnosed well by GPs (they make unnecessary neuro tests when headaches come, or believe there is a problem of stress), if the app could in some ways with functionalities other than official menopause such as nutritional /healthy recommendations for various ages, that helps onboarding earlier the women users 40-70</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Quality of advice not sufficient</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Sore breasts, Dry skin</t>
+  </si>
+  <si>
+    <t>I would probably work on the My Recommendations page a bit more and its colors.</t>
+  </si>
+  <si>
+    <t>Preventive plan, Focus on optimal weight</t>
+  </si>
+  <si>
+    <t>szilvike.varga@gmail.com</t>
+  </si>
+  <si>
+    <t>Thank you for your effort. Good luck!</t>
+  </si>
+  <si>
+    <t>Quality of advice not sufficient, Time spent</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1599,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="41" width="18.88"/>
+    <col customWidth="1" min="1" max="52" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1580,6 +1706,39 @@
         <v>49</v>
       </c>
       <c r="AI1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1588,55 +1747,55 @@
         <v>44653.55085621528</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD2" s="4">
         <v>1969.0</v>
@@ -1645,98 +1804,120 @@
         <v>12</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>44653.555544999996</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AD3" s="4">
         <v>1900.0</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>44653.83019864583</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="AC4" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD4" s="4">
         <v>1973.0</v>
@@ -1745,55 +1926,66 @@
         <v>0.0</v>
       </c>
       <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>44653.92549693287</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD5" s="4">
         <v>1976.0</v>
@@ -1802,190 +1994,223 @@
         <v>0.0</v>
       </c>
       <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>44653.964301747685</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AG6" s="3">
         <v>0.0</v>
       </c>
       <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>44653.992480914356</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD7" s="4">
         <v>1973.0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AG7" s="3">
         <v>0.0</v>
       </c>
       <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>44654.00859644676</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD8" s="4">
         <v>1979.0</v>
@@ -1994,178 +2219,211 @@
         <v>0.0</v>
       </c>
       <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>44654.16429861111</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="AB9" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD9" s="4">
         <v>1969.0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AG9" s="3">
         <v>0.0</v>
       </c>
       <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>44654.45035709491</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="U10" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="V10" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD10" s="4">
         <v>1974.0</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AG10" s="3">
         <v>0.0</v>
       </c>
       <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>44654.72085326389</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD11" s="4">
         <v>1977.0</v>
@@ -2174,55 +2432,66 @@
         <v>0.0</v>
       </c>
       <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>44654.935787118055</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="AD12" s="4">
         <v>1981.0</v>
@@ -2231,55 +2500,66 @@
         <v>0.0</v>
       </c>
       <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>44654.99252756944</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD13" s="4">
         <v>1978.0</v>
@@ -2288,608 +2568,707 @@
         <v>0.0</v>
       </c>
       <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>44655.52566708333</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD14" s="4">
         <v>1984.0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AG14" s="3">
         <v>0.0</v>
       </c>
       <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>44655.53255023148</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD15" s="4">
         <v>1969.0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AG15" s="3">
         <v>0.0</v>
       </c>
       <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>44655.66208115741</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD16" s="4">
         <v>1955.0</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AG16" s="3">
         <v>0.0</v>
       </c>
       <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <v>44656.0159640162</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AD17" s="4">
         <v>1965.0</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="AG17" s="6">
         <v>0.0</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>44656.056331134256</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD18" s="4">
         <v>1969.0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AG18" s="6">
         <v>0.0</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <v>44656.08901736111</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD19" s="4">
         <v>1966.0</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="AG19" s="6">
         <v>0.0</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <v>44656.353949826385</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="U20" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD20" s="4">
         <v>1979.0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AG20" s="6">
         <v>0.0</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>167</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2">
         <v>44656.788201331015</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD21" s="4">
         <v>1979.0</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AG21" s="6">
         <v>0.0</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
         <v>44657.482965937495</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD22" s="4">
         <v>1980.0</v>
@@ -2898,57 +3277,68 @@
         <v>0.0</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>174</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
         <v>44657.50183361111</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="N23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC23" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="AD23" s="4">
         <v>1981.0</v>
@@ -2957,60 +3347,71 @@
         <v>0.0</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
         <v>44657.60481414352</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD24" s="4">
         <v>1969.0</v>
@@ -3019,57 +3420,68 @@
         <v>0.0</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>183</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2">
         <v>44657.68471003472</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD25" s="4">
         <v>1976.0</v>
@@ -3078,54 +3490,65 @@
         <v>0.0</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>183</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>44657.97197899305</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AD26" s="4">
         <v>1979.0</v>
@@ -3134,75 +3557,114 @@
         <v>0.0</v>
       </c>
       <c r="AH26" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
         <v>44658.49831210648</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC27" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC27" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="AD27" s="4">
         <v>1958.0</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="AG27" s="6">
         <v>0.0</v>
       </c>
       <c r="AH27" s="4" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>44663.45514071759</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3226,8 +3688,8 @@
     <col customWidth="1" min="1" max="1" width="19.13"/>
     <col customWidth="1" min="2" max="2" width="79.5"/>
     <col customWidth="1" min="3" max="32" width="19.13"/>
-    <col customWidth="1" min="33" max="33" width="18.88"/>
-    <col customWidth="1" min="34" max="39" width="19.13"/>
+    <col customWidth="1" min="33" max="43" width="18.88"/>
+    <col customWidth="1" min="44" max="49" width="19.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3280,10 +3742,10 @@
         <v>33</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>36</v>
@@ -3292,43 +3754,73 @@
         <v>37</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="2">
@@ -3336,79 +3828,89 @@
         <v>44653.50574317129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>44653.51107434028</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -3416,79 +3918,79 @@
         <v>44653.712479849535</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
@@ -3496,124 +3998,134 @@
         <v>44653.78331346065</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD5" s="4">
         <v>1974.0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>44653.79845997685</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD6" s="4">
         <v>1967.0</v>
@@ -3624,55 +4136,55 @@
         <v>44653.855341215276</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD7" s="4">
         <v>1964.0</v>
@@ -3683,64 +4195,64 @@
         <v>44654.05190114584</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AD8" s="4">
         <v>1957.0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9">
@@ -3748,55 +4260,55 @@
         <v>44654.372335196764</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD9" s="4">
         <v>1971.0</v>
@@ -3807,121 +4319,131 @@
         <v>44654.46405359954</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="4">
         <v>1979.0</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>44654.613105474535</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD11" s="4">
         <v>1978.0</v>
@@ -3932,208 +4454,228 @@
         <v>44654.64719609954</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="AB12" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD12" s="4">
         <v>1979.0</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>44654.74879509259</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD13" s="4">
         <v>1978.0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>44654.79188309028</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD14" s="4">
         <v>1969.0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15">
@@ -4141,58 +4683,58 @@
         <v>44654.80504972222</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="AB15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="AD15" s="4">
         <v>1962.0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16">
@@ -4200,193 +4742,213 @@
         <v>44654.81236946759</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="N16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC16" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="AD16" s="4">
         <v>1979.0</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <v>44654.88268597222</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AD17" s="4">
         <v>1963.0</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>44654.97188696759</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD18" s="4">
         <v>1968.0</v>
@@ -4397,136 +4959,146 @@
         <v>44655.2372197338</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD19" s="4">
         <v>1965.0</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <v>44655.37514510417</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD20" s="4">
         <v>1975.0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21">
@@ -4534,58 +5106,58 @@
         <v>44655.43293710648</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD21" s="4">
         <v>1968.0</v>
@@ -4596,70 +5168,70 @@
         <v>44655.46357515047</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD22" s="4">
         <v>1972.0</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23">
@@ -4667,97 +5239,107 @@
         <v>44655.537162002314</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD23" s="4">
         <v>1963.0</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
         <v>44655.808510497685</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>14</v>
@@ -4766,740 +5348,1177 @@
         <v>15</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD24" s="4">
         <v>1953.0</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="AG24" s="4" t="s">
-        <v>297</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2">
         <v>44656.059187858795</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD25" s="4">
         <v>1982.0</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="AG25" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>44656.93068539352</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD26" s="4">
         <v>1971.0</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>305</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
         <v>44657.533639710644</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD27" s="4">
         <v>1969.0</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
         <v>44657.56485094907</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD28" s="4">
         <v>1978.0</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2">
         <v>44657.97121516203</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AD29" s="4">
         <v>1964.0</v>
       </c>
       <c r="AG29" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <v>44658.35834177083</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD30" s="4">
         <v>1956.0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="AG30" s="4" t="s">
-        <v>192</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <v>44658.48133689815</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AD31" s="4">
         <v>1949.0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AG31" s="4" t="s">
-        <v>328</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2">
         <v>44658.6229906713</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AD32" s="4">
         <v>1963.0</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="AG32" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2">
         <v>44658.64632181713</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD33" s="4">
         <v>1969.0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>192</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2">
         <v>44658.74796883102</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AD34" s="4">
         <v>1964.0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="AG34" s="4" t="s">
-        <v>192</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2">
         <v>44658.90646427083</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AD35" s="4">
         <v>1970.0</v>
       </c>
       <c r="AG35" s="4" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>44659.534568020834</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>1972.0</v>
+      </c>
+      <c r="AE36" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF36" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH36" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>44660.48686611111</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>1965.0</v>
+      </c>
+      <c r="AG37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH37" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>44664.50016859954</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>1972.0</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF38" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG38" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ38" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL38" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM38" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>44664.546290115744</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>1973.0</v>
+      </c>
+      <c r="AE39" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF39" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ39" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/survey/PhenomX Health Women's Survey (All Responses).xlsx
+++ b/survey/PhenomX Health Women's Survey (All Responses).xlsx
@@ -13,8 +13,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C45">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="AH45">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="505">
   <si>
     <t>Timestamp</t>
   </si>
@@ -631,6 +651,270 @@
     <t>michelc@drit.ml</t>
   </si>
   <si>
+    <t>Bloating, Gas, Mood swings, Headaches, Low energy, fatigue, Weight gain, Incontinence, Skin wrinkling, Dry skin, Dry mouth, Decreased memory, Hair loss, thinning, change in texture</t>
+  </si>
+  <si>
+    <t>I am aware of general healthy ways and try to stick to them, I consulted a nutritionist and have a personalized plan to follow</t>
+  </si>
+  <si>
+    <t>marzia.massignani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland </t>
+  </si>
+  <si>
+    <t>Quality of advice not sufficient</t>
+  </si>
+  <si>
+    <t>Time spent</t>
+  </si>
+  <si>
+    <t>Bloating, Constipation, Mood swings, Anxiety and/or panic attacks, Sleep difficulties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I ask for advice when in the pharmacy, I have a nutritionist friend. </t>
+  </si>
+  <si>
+    <t>Fast results addressing current issues, Preventive plan, Focus on optimal weight</t>
+  </si>
+  <si>
+    <t>Cotrutadiana@yahoo.com</t>
+  </si>
+  <si>
+    <t>Quality of advice not sufficient, Time spent</t>
+  </si>
+  <si>
+    <t>Quality of advice not sufficient, Money spent</t>
+  </si>
+  <si>
+    <t>Menstrual cramps, Depression, Brain fog, Anxiety and/or panic attacks, Sleep difficulties, Low energy, fatigue, skin rash and atopic dermatitis</t>
+  </si>
+  <si>
+    <t>based on biological dosage only</t>
+  </si>
+  <si>
+    <t>it should be certified and prove its efficiency through a trial like a clinical trial</t>
+  </si>
+  <si>
+    <t>algorithm that send me a weekly summary through the channel and the day I choose.</t>
+  </si>
+  <si>
+    <t>regarding the microbiome assessment, there is no international standard so far, I am a microbiologist :-) There is an overuse of this word now a buzz word.</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gas, Menstrual cramps, Night sweats, Low energy, fatigue, Vaginal dryness</t>
+  </si>
+  <si>
+    <t>Focus on optimal weight, Advice on healthy recipes</t>
+  </si>
+  <si>
+    <t>Pascalehellmueller66@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suisse 🇨🇭 </t>
+  </si>
+  <si>
+    <t>Brain fog, Sleep difficulties, Low energy, fatigue, Weight gain, Decreased memory</t>
+  </si>
+  <si>
+    <t>Personalized recommendations without going to any specialists, One- click purchase of food supplements of trusted brands</t>
+  </si>
+  <si>
+    <t>caroline.munari@me.com</t>
+  </si>
+  <si>
+    <t>Sore breasts, Gas, Constipation, Weight gain, Age spots, melasma</t>
+  </si>
+  <si>
+    <t>Connection with people who are at the same stage in their lives or have just been through it, Personalized recommendations without going to any specialists</t>
+  </si>
+  <si>
+    <t>Clear everyday plan easy to follow, Focus on optimal weight</t>
+  </si>
+  <si>
+    <t>Sore breasts, Menstrual cramps, Low energy, fatigue, Weight gain, Skin wrinkling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General recommendations on how to address symptoms of menopause with the help of nutrition, Personalized recommendations without going to any specialists, One- click purchase of food supplements of trusted brands, Follow progress of symptoms overtime and get charts to see if any improvment, could be could to include an index which gives you the state  of your profile compared to the level you should be  </t>
+  </si>
+  <si>
+    <t>It saves time, It is private, You can have holistic approach instead of going to each specialist</t>
+  </si>
+  <si>
+    <t>celine.dicara@wanadoo.fr</t>
+  </si>
+  <si>
+    <t>Mood swings, Sleep difficulties, Low energy, fatigue, Weight gain</t>
+  </si>
+  <si>
+    <t>Clear everyday plan easy to follow, Preventive plan, Focus on optimal weight, Advice on healthy recipes</t>
+  </si>
+  <si>
+    <t>maura.boucher@comcast.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are so welcome! </t>
+  </si>
+  <si>
+    <t>Night sweats, Headaches, Anxiety and/or panic attacks, Sleep difficulties, Low energy, fatigue</t>
+  </si>
+  <si>
+    <t>I am aware of general healthy ways and try to stick to them, I consulted a nutritionist and have a personalized plan to follow, I follow advice from my doctors</t>
+  </si>
+  <si>
+    <t>Personalized recommendations without going to any specialists, Network of certified trusted nutritionists for online consultation, One- click purchase of food supplements of trusted brands</t>
+  </si>
+  <si>
+    <t>It saves time, It is private, i can choose when to do it / works with my schedule</t>
+  </si>
+  <si>
+    <t>esvanas@gmail.com</t>
+  </si>
+  <si>
+    <t>Convenience of service</t>
+  </si>
+  <si>
+    <t>Quality of advice not sufficient, Convenience of service, Money spent</t>
+  </si>
+  <si>
+    <t>Bloating, Gas, Constipation, Night sweats, Body odor, Mood swings, Headaches, Sleep difficulties, Joint pain, Low energy, fatigue, Weight gain, Loss of skin elasticity, sagging skin, Skin wrinkling, Dry skin</t>
+  </si>
+  <si>
+    <t>I am aware of general healthy ways and try to stick to them, I consulted a nutritionist and have a personalized plan to follow, Acupuncture</t>
+  </si>
+  <si>
+    <t>General recommendations on how to address symptoms of menopause with the help of nutrition, Connection with people who are at the same stage in their lives or have just been through it, Personalized recommendations without going to any specialists, Network of certified trusted nutritionists for online consultation, One- click purchase of food supplements of trusted brands</t>
+  </si>
+  <si>
+    <t>nutritionist</t>
+  </si>
+  <si>
+    <t>It saves time, Easy &amp; convenient</t>
+  </si>
+  <si>
+    <t>Clear everyday plan easy to follow, Fast results addressing current issues, Focus on optimal weight, Advice on healthy recipes</t>
+  </si>
+  <si>
+    <t>lisahgable@gmail.com</t>
+  </si>
+  <si>
+    <t>Thank you! As someone who had a hysterectomy at age 37, I have done a lot of research and tried many different treatments. Feel free to reach out with any questions as I fully support this app!</t>
+  </si>
+  <si>
+    <t>Constipation, Headaches, Low energy, fatigue, Loss of skin elasticity, sagging skin, Skin wrinkling</t>
+  </si>
+  <si>
+    <t>paulajanenenn@yahoo.com</t>
+  </si>
+  <si>
+    <t>Most welcome. I spend little on healthcare because it’s free in the UK</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Dry skin</t>
+  </si>
+  <si>
+    <t>Preventive plan, Advice on healthy recipes</t>
+  </si>
+  <si>
+    <t>Andreea.sincu@gmail.com</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Bloating, Gas</t>
+  </si>
+  <si>
+    <t>laura_mantu@yahoo.com</t>
+  </si>
+  <si>
+    <t>You re welcome</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Mood swings, Joint pain, Age spots, melasma, Dry skin, Vaginal dryness</t>
+  </si>
+  <si>
+    <t>masha_verhoogt@yahoo.com</t>
+  </si>
+  <si>
+    <t>Thank you🙏🙂</t>
+  </si>
+  <si>
+    <t>Bloating, Gas, Night sweats, Body odor, Mood swings, Brain fog, Sleep difficulties, Joint pain, Low energy, fatigue, Frequent sickness - colds, flu, etc., Loss of skin elasticity, sagging skin, Age spots, melasma, Dry skin, Decreased memory</t>
+  </si>
+  <si>
+    <t>ioanac.cofaru@gmail.com</t>
+  </si>
+  <si>
+    <t>Thank you too!</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>Bloating</t>
+  </si>
+  <si>
+    <t>I only listen to my body and follow its needs, I am aware of general healthy ways and try to stick to them, I follow advice from my doctors</t>
+  </si>
+  <si>
+    <t>monicamilosescu@gmail.com</t>
+  </si>
+  <si>
+    <t>You are welcomr!</t>
+  </si>
+  <si>
+    <t>Sleep difficulties, Low energy, fatigue, Loss of skin elasticity, sagging skin, Hair loss, thinning, change in texture</t>
+  </si>
+  <si>
+    <t>General recommendations on how to address symptoms of menopause with the help of nutrition, Connection with people who are at the same stage in their lives or have just been through it, Personalized recommendations without going to any specialists, One- click purchase of food supplements of trusted brands</t>
+  </si>
+  <si>
+    <t>dara.sosulski@gmail.com</t>
+  </si>
+  <si>
+    <t>You're very welcome!</t>
+  </si>
+  <si>
+    <t>Headaches, Weight gain, Loss of skin elasticity, sagging skin, Skin wrinkling, Age spots, melasma, Vaginal dryness, Decreased memory</t>
+  </si>
+  <si>
+    <t>telford515@yahoo.com</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>Gas, Vaginal dryness</t>
+  </si>
+  <si>
+    <t>I follow advice from my doctors</t>
+  </si>
+  <si>
+    <t>Preventive plan, Focus on optimal weight</t>
+  </si>
+  <si>
+    <t>Sleep difficulties, Skin wrinkling, Vaginal dryness</t>
+  </si>
+  <si>
+    <t>General recommendations on how to address symptoms of menopause with the help of nutrition, Connection with people who are at the same stage in their lives or have just been through it</t>
+  </si>
+  <si>
+    <t>patrbegley@gmail.com</t>
+  </si>
+  <si>
+    <t>Thank you for inquiring</t>
+  </si>
+  <si>
     <t>8a. Do you enjoy its look and feel?</t>
   </si>
   <si>
@@ -760,18 +1044,9 @@
     <t>Gas, Constipation, Brain fog, Hair loss, thinning, change in texture</t>
   </si>
   <si>
-    <t>Personalized recommendations without going to any specialists, One- click purchase of food supplements of trusted brands</t>
-  </si>
-  <si>
-    <t>Bloating</t>
-  </si>
-  <si>
     <t>I only listen to my body and follow its needs, I follow advice from my doctors</t>
   </si>
   <si>
-    <t>None of the above</t>
-  </si>
-  <si>
     <t>I am aware of general healthy ways and try to stick to them, I use labs to also inform my decisions</t>
   </si>
   <si>
@@ -796,9 +1071,6 @@
     <t xml:space="preserve">It saves time, Less expensive </t>
   </si>
   <si>
-    <t>Clear everyday plan easy to follow, Focus on optimal weight</t>
-  </si>
-  <si>
     <t>Menstrual cramps, Headaches, Low energy, fatigue, Dry skin, Dry mouth</t>
   </si>
   <si>
@@ -820,9 +1092,6 @@
     <t>I only listen to my body and follow its needs, I am aware of general healthy ways and try to stick to them, I ask for advice when in the pharmacy</t>
   </si>
   <si>
-    <t>General recommendations on how to address symptoms of menopause with the help of nutrition, Connection with people who are at the same stage in their lives or have just been through it, Personalized recommendations without going to any specialists, One- click purchase of food supplements of trusted brands</t>
-  </si>
-  <si>
     <t>Joint pain, Low energy, fatigue, Weight gain, Skin wrinkling</t>
   </si>
   <si>
@@ -847,9 +1116,6 @@
     <t>I would need to see it more in detail and try out the functionalities and the general feel of it.</t>
   </si>
   <si>
-    <t>Fast results addressing current issues, Preventive plan, Focus on optimal weight</t>
-  </si>
-  <si>
     <t>lskavska@hotmail.com</t>
   </si>
   <si>
@@ -925,9 +1191,6 @@
     <t xml:space="preserve">It saves time, Drs rdvs are a pain to make </t>
   </si>
   <si>
-    <t>Clear everyday plan easy to follow, Fast results addressing current issues, Focus on optimal weight, Advice on healthy recipes</t>
-  </si>
-  <si>
     <t>megandaypb@gmail.com</t>
   </si>
   <si>
@@ -941,9 +1204,6 @@
   </si>
   <si>
     <t>Night sweats, Hot flashes, Brain fog, Low energy, fatigue, Weight gain</t>
-  </si>
-  <si>
-    <t>I only listen to my body and follow its needs, I am aware of general healthy ways and try to stick to them, I follow advice from my doctors</t>
   </si>
   <si>
     <t>Menstrual cramps, Depression, Anxiety and/or panic attacks, Low energy, fatigue, Skin wrinkling, Age spots, melasma, Vaginal dryness, Decreased memory</t>
@@ -968,9 +1228,6 @@
     <t>Sleep difficulties, Weight gain, Allergy</t>
   </si>
   <si>
-    <t>Clear everyday plan easy to follow, Preventive plan, Focus on optimal weight, Advice on healthy recipes</t>
-  </si>
-  <si>
     <t>Germidal@gmail.com</t>
   </si>
   <si>
@@ -998,9 +1255,6 @@
     <t xml:space="preserve">Don't like the beige background.  I use the lifesum app and like the look and feel.   </t>
   </si>
   <si>
-    <t xml:space="preserve">Switzerland </t>
-  </si>
-  <si>
     <t>Bloating, Gas, Constipation, Mood swings, Sleep difficulties, Low energy, fatigue, Weight gain, Skin wrinkling</t>
   </si>
   <si>
@@ -1133,12 +1387,6 @@
     <t>You are welcome, such an app could be a great preventive tool for women who believe they are not yet even in pre menopause, while this stage can come more quickly than thought, and entails symptoms that usually are not even diagnosed well by GPs (they make unnecessary neuro tests when headaches come, or believe there is a problem of stress), if the app could in some ways with functionalities other than official menopause such as nutritional /healthy recommendations for various ages, that helps onboarding earlier the women users 40-70</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Quality of advice not sufficient</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -1148,16 +1396,163 @@
     <t>I would probably work on the My Recommendations page a bit more and its colors.</t>
   </si>
   <si>
-    <t>Preventive plan, Focus on optimal weight</t>
-  </si>
-  <si>
     <t>szilvike.varga@gmail.com</t>
   </si>
   <si>
     <t>Thank you for your effort. Good luck!</t>
   </si>
   <si>
-    <t>Quality of advice not sufficient, Time spent</t>
+    <t>Anxiety and/or panic attacks, Dry skin, Vaginal dryness, Hair loss, thinning, change in texture</t>
+  </si>
+  <si>
+    <t>Personalized recommendationson on how to address symptoms of menopause with the help of nutrition</t>
+  </si>
+  <si>
+    <t>I have no experience</t>
+  </si>
+  <si>
+    <t>traudel.sattler@gmail.com</t>
+  </si>
+  <si>
+    <t>guck luck for your reserch!</t>
+  </si>
+  <si>
+    <t>Money spent</t>
+  </si>
+  <si>
+    <t>Night sweats, Mood swings, Sleep difficulties, Low energy, fatigue, Dry mouth</t>
+  </si>
+  <si>
+    <t>Personalized recommendations on how to address menopause symptoms with the help of nutrition, General recommendations on how to address menopause symptoms with the help of nutrition, Network of certified trusted nutritionists for online consultation, All of the above</t>
+  </si>
+  <si>
+    <t>Bloating, Hot flashes, Cold flashes, Headaches, Brain fog, Anxiety and/or panic attacks, Heart palpitations, Sleep difficulties, Joint pain, Low energy, fatigue, Dry skin, Dry mouth, Vaginal dryness</t>
+  </si>
+  <si>
+    <t>Personalized recommendations on how to address menopause symptoms with the help of nutrition, Connection  with people who are at the same stage in their lives or have just been through it, General recommendations on how to address menopause symptoms with the help of nutrition, Network of certified trusted nutritionists for online consultation, One- click purchase of food supplements of trusted brands, All of the above</t>
+  </si>
+  <si>
+    <t>It saves time, It is private, I can do it as frequently as I want!</t>
+  </si>
+  <si>
+    <t>Night sweats, Body odor, Joint pain, Low energy, fatigue, Weight gain, Loss of skin elasticity, sagging skin, Skin wrinkling, Age spots, melasma, Dry skin, Hair loss, thinning, change in texture</t>
+  </si>
+  <si>
+    <t>I ask for advice when in the pharmacy</t>
+  </si>
+  <si>
+    <t>Personalized recommendations on how to address menopause symptoms with the help of nutrition, Network of certified trusted nutritionists for online consultation, One- click purchase of food supplements of trusted brands</t>
+  </si>
+  <si>
+    <t>Maybe change the colours</t>
+  </si>
+  <si>
+    <t>s_puschiasis@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gas, Night sweats, Hot flashes, Brain fog, Low energy, fatigue, Weight gain, Urinary tract infections, Loss of skin elasticity, sagging skin, Skin wrinkling, Age spots, melasma, Dry mouth, Vaginal dryness, Hair loss, thinning, change in texture</t>
+  </si>
+  <si>
+    <t>Personalized recommendations on how to address menopause symptoms with the help of nutrition, General recommendations on how to address menopause symptoms with the help of nutrition</t>
+  </si>
+  <si>
+    <t>familykropf@yahoo.com</t>
+  </si>
+  <si>
+    <t>You’re welcome</t>
+  </si>
+  <si>
+    <t>Constipation, Brain fog, Low energy, fatigue, Loss of skin elasticity, sagging skin, Vaginal dryness</t>
+  </si>
+  <si>
+    <t>General recommendations on how to address menopause symptoms with the help of nutrition</t>
+  </si>
+  <si>
+    <t>Anxiety and/or panic attacks, Loss of skin elasticity, sagging skin, Vaginal dryness, Hair loss, thinning, change in texture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m not informed yet. </t>
+  </si>
+  <si>
+    <t>Fraridu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Thank you to you too !</t>
+  </si>
+  <si>
+    <t>Menstrual cramps, Depression, Joint pain, Weight gain, Loss of skin elasticity, sagging skin, Skin wrinkling, Age spots, melasma, Dry skin, Hair loss, thinning, change in texture</t>
+  </si>
+  <si>
+    <t>nadskia@hotmail.com</t>
+  </si>
+  <si>
+    <t>Money spent, Convenience of service</t>
+  </si>
+  <si>
+    <t>Constipation, Hot flashes, Body odor, Mood swings, Brain fog, Dry skin</t>
+  </si>
+  <si>
+    <t>I am aware of general healthy ways and try to stick to them, I follow advice from my doctors, I have always taken great care of my nutrition and health</t>
+  </si>
+  <si>
+    <t>Personalized recommendations on how to address menopause symptoms with the help of nutrition</t>
+  </si>
+  <si>
+    <t>Maybe even in other languages</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Support myself in an ongoing transformation journey, Get myself out of a significant health issue, Prepare myself for the upcoming health challenge</t>
+  </si>
+  <si>
+    <t>Bloating, Gas, Body odor, Headaches, Sleep difficulties, Joint pain, Low energy, fatigue, Weight gain, Incontinence, Decreased memory</t>
+  </si>
+  <si>
+    <t>Personalized recommendations on how to address menopause symptoms with the help of nutrition, General recommendations on how to address menopause symptoms with the help of nutrition, Network of certified trusted nutritionists for online consultation, One- click purchase of food supplements of trusted brands</t>
+  </si>
+  <si>
+    <t>gina.akadi@lazazzera.ch</t>
+  </si>
+  <si>
+    <t>Bloating, Sleep difficulties, Low energy, fatigue, Weight gain, Dry mouth</t>
+  </si>
+  <si>
+    <t>Personalized recommendations on how to address menopause symptoms with the help of nutrition, Network of certified trusted nutritionists for online consultation</t>
+  </si>
+  <si>
+    <t>emsiepitt@gmail.com</t>
+  </si>
+  <si>
+    <t>Night sweats, Mood swings, Heart palpitations, Low energy, fatigue, Weight gain</t>
+  </si>
+  <si>
+    <t>No app for health</t>
+  </si>
+  <si>
+    <t>Get myself out of a significant health issue, Prepare myself for the upcoming health challenge, Sortir du diabète</t>
+  </si>
+  <si>
+    <t>Gas, Heart palpitations, Weight gain, Bladder pain, frequent urination, Loss of skin elasticity, sagging skin, Decreased memory</t>
+  </si>
+  <si>
+    <t>Encore une app !!!!!!</t>
+  </si>
+  <si>
+    <t>La baisse des effets "ménopause-postménopause" est intéressante. Personnellement, je trouve chronophage et trop abstrait d'avoir à écouter le discours sur les bienfaits qui plus est en anglais. Je préfère une conférence sur le sujet avec la projection et les explications sur le rôle de l'app. Après ça, peut-être même volontaire pour essayer l'app...</t>
+  </si>
+  <si>
+    <t>voir plus haut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tout dépend de la fiabilité des "self-tests" </t>
+  </si>
+  <si>
+    <t>felanne.marie55@gmail.com</t>
+  </si>
+  <si>
+    <t>Mood swings, Loss of skin elasticity, sagging skin, Skin wrinkling, Age spots, melasma, Dry skin, Hair loss, thinning, change in texture</t>
   </si>
 </sst>
 </file>
@@ -3667,8 +4062,1834 @@
         <v>181</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>44670.70259006944</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>1982.0</v>
+      </c>
+      <c r="AE29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH29" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM29" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN29" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO29" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR29" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>44670.73628143518</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>1980.0</v>
+      </c>
+      <c r="AE30" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM30" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN30" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>44670.86206410879</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH31" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL31" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>44671.3458021875</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>1975.0</v>
+      </c>
+      <c r="AE32" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH32" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK32" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>44676.91168621527</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>1974.0</v>
+      </c>
+      <c r="AE33" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH33" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI33" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO33" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>44680.31729445602</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA34" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>1973.0</v>
+      </c>
+      <c r="AG34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH34" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK34" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>44680.318009849536</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>1973.0</v>
+      </c>
+      <c r="AG35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH35" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK35" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>44680.32803837963</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>1973.0</v>
+      </c>
+      <c r="AG36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH36" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK36" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>44685.29883569444</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>1976.0</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH37" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI37" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO37" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>44685.6425977662</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>1963.0</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF38" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM38" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN38" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>44685.71201177083</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>1986.0</v>
+      </c>
+      <c r="AE39" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI39" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM39" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN39" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO39" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP39" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ39" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR39" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS39" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>44685.93008186342</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>1980.0</v>
+      </c>
+      <c r="AE40" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF40" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG40" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN40" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO40" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>44685.975979386574</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>1970.0</v>
+      </c>
+      <c r="AE41" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF41" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH41" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI41" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM41" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN41" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>44686.16195275463</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA42" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>1980.0</v>
+      </c>
+      <c r="AE42" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH42" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK42" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>44686.31801371528</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>1977.0</v>
+      </c>
+      <c r="AE43" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF43" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH43" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL43" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>44686.32109840278</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>1970.0</v>
+      </c>
+      <c r="AE44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF44" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI44" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR44" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>44686.5408818287</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>1980.0</v>
+      </c>
+      <c r="AE45" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF45" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH45" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI45" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM45" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN45" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO45" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP45" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>44686.60657905093</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>1955.0</v>
+      </c>
+      <c r="AE46" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF46" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG46" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN46" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>44686.78336234954</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA47" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>1981.0</v>
+      </c>
+      <c r="AE47" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF47" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH47" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO47" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>44687.880361840274</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>1970.0</v>
+      </c>
+      <c r="AE48" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG48" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH48" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK48" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>44690.69009082176</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>1966.0</v>
+      </c>
+      <c r="AG49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH49" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI49" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM49" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN49" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO49" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP49" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>44691.85146913194</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA50" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>1981.0</v>
+      </c>
+      <c r="AG50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH50" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO50" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>44693.0820928125</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA51" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB51" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>1956.0</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF51" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AH51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI51" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN51" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO51" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3742,10 +5963,10 @@
         <v>33</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>36</v>
@@ -3754,73 +5975,73 @@
         <v>37</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
@@ -3831,7 +6052,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>63</v>
@@ -3849,13 +6070,13 @@
         <v>67</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>77</v>
@@ -3870,7 +6091,7 @@
         <v>70</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>132</v>
@@ -3882,13 +6103,13 @@
         <v>160</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
@@ -3910,7 +6131,7 @@
         <v>87</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4">
@@ -3921,7 +6142,7 @@
         <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>64</v>
@@ -3948,7 +6169,7 @@
         <v>63</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>66</v>
@@ -3957,13 +6178,13 @@
         <v>67</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>238</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>118</v>
@@ -3978,7 +6199,7 @@
         <v>96</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>159</v>
@@ -3987,10 +6208,10 @@
         <v>73</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
@@ -4001,7 +6222,7 @@
         <v>182</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>63</v>
@@ -4040,7 +6261,7 @@
         <v>105</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="AB5" s="4" t="s">
         <v>73</v>
@@ -4052,10 +6273,10 @@
         <v>1974.0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
@@ -4077,7 +6298,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>63</v>
@@ -4098,7 +6319,7 @@
         <v>87</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>15</v>
@@ -4139,7 +6360,7 @@
         <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>63</v>
@@ -4148,7 +6369,7 @@
         <v>63</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>86</v>
@@ -4198,13 +6419,13 @@
         <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>86</v>
@@ -4213,16 +6434,16 @@
         <v>87</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>70</v>
@@ -4240,7 +6461,7 @@
         <v>89</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="AB8" s="4" t="s">
         <v>111</v>
@@ -4252,7 +6473,7 @@
         <v>1957.0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
@@ -4263,7 +6484,7 @@
         <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>63</v>
@@ -4299,10 +6520,10 @@
         <v>70</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="AB9" s="4" t="s">
         <v>73</v>
@@ -4322,13 +6543,13 @@
         <v>99</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>102</v>
@@ -4337,13 +6558,13 @@
         <v>87</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>238</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>104</v>
@@ -4370,10 +6591,10 @@
         <v>1979.0</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
@@ -4395,7 +6616,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>64</v>
@@ -4404,7 +6625,7 @@
         <v>64</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>102</v>
@@ -4413,7 +6634,7 @@
         <v>87</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>15</v>
@@ -4457,7 +6678,7 @@
         <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>63</v>
@@ -4475,10 +6696,10 @@
         <v>117</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>77</v>
@@ -4493,7 +6714,7 @@
         <v>70</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="AA12" s="4" t="s">
         <v>106</v>
@@ -4508,10 +6729,10 @@
         <v>1979.0</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>273</v>
+        <v>356</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
@@ -4533,7 +6754,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>63</v>
@@ -4560,10 +6781,10 @@
         <v>121</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>77</v>
@@ -4584,7 +6805,7 @@
         <v>105</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="AB13" s="4" t="s">
         <v>73</v>
@@ -4596,10 +6817,10 @@
         <v>1978.0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
@@ -4621,7 +6842,7 @@
         <v>170</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>63</v>
@@ -4642,7 +6863,7 @@
         <v>67</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>15</v>
@@ -4675,7 +6896,7 @@
         <v>1969.0</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15">
@@ -4683,10 +6904,10 @@
         <v>44654.80504972222</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>63</v>
@@ -4701,10 +6922,10 @@
         <v>143</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>77</v>
@@ -4734,7 +6955,7 @@
         <v>1962.0</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16">
@@ -4742,10 +6963,10 @@
         <v>44654.81236946759</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>287</v>
+        <v>369</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>64</v>
@@ -4760,7 +6981,7 @@
         <v>63</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>102</v>
@@ -4772,10 +6993,10 @@
         <v>103</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="U16" s="4" t="s">
         <v>77</v>
@@ -4805,10 +7026,10 @@
         <v>1979.0</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
@@ -4830,13 +7051,13 @@
         <v>99</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>64</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>102</v>
@@ -4866,7 +7087,7 @@
         <v>89</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="AB17" s="4" t="s">
         <v>148</v>
@@ -4878,10 +7099,10 @@
         <v>1963.0</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
@@ -4903,7 +7124,7 @@
         <v>99</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>63</v>
@@ -4921,7 +7142,7 @@
         <v>143</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>117</v>
@@ -4962,7 +7183,7 @@
         <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>64</v>
@@ -4977,7 +7198,7 @@
         <v>64</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>184</v>
@@ -4992,7 +7213,7 @@
         <v>15</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>104</v>
@@ -5007,10 +7228,10 @@
         <v>70</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="AB19" s="4" t="s">
         <v>111</v>
@@ -5022,10 +7243,10 @@
         <v>1965.0</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
@@ -5047,7 +7268,7 @@
         <v>76</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>63</v>
@@ -5098,7 +7319,7 @@
         <v>1975.0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>307</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21">
@@ -5109,7 +7330,7 @@
         <v>83</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>63</v>
@@ -5124,7 +7345,7 @@
         <v>63</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>102</v>
@@ -5171,7 +7392,7 @@
         <v>182</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>63</v>
@@ -5201,7 +7422,7 @@
         <v>15</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="U22" s="4" t="s">
         <v>104</v>
@@ -5231,7 +7452,7 @@
         <v>1972.0</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23">
@@ -5242,7 +7463,7 @@
         <v>99</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>63</v>
@@ -5299,10 +7520,10 @@
         <v>1963.0</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
@@ -5324,7 +7545,7 @@
         <v>182</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>63</v>
@@ -5363,7 +7584,7 @@
         <v>89</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="AB24" s="4" t="s">
         <v>111</v>
@@ -5375,10 +7596,10 @@
         <v>1953.0</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="AG24" s="4" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
@@ -5399,7 +7620,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>64</v>
@@ -5414,7 +7635,7 @@
         <v>64</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>66</v>
@@ -5426,10 +7647,10 @@
         <v>14</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="U25" s="4" t="s">
         <v>104</v>
@@ -5462,7 +7683,7 @@
         <v>1982.0</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="AG25" s="4" t="s">
         <v>162</v>
@@ -5486,7 +7707,7 @@
         <v>99</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>63</v>
@@ -5513,10 +7734,10 @@
         <v>103</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="U26" s="4" t="s">
         <v>104</v>
@@ -5549,7 +7770,7 @@
         <v>1971.0</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
@@ -5570,7 +7791,7 @@
         <v>114</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>327</v>
+        <v>405</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>63</v>
@@ -5582,13 +7803,13 @@
         <v>63</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>143</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>165</v>
@@ -5624,10 +7845,10 @@
         <v>1969.0</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>331</v>
+        <v>409</v>
       </c>
       <c r="AG27" s="4" t="s">
         <v>181</v>
@@ -5651,7 +7872,7 @@
         <v>83</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>63</v>
@@ -5663,13 +7884,13 @@
         <v>63</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>143</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="U28" s="4" t="s">
         <v>118</v>
@@ -5717,7 +7938,7 @@
         <v>83</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>64</v>
@@ -5741,7 +7962,7 @@
         <v>15</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>70</v>
@@ -5786,10 +8007,10 @@
         <v>44658.35834177083</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>337</v>
+        <v>415</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>63</v>
@@ -5798,7 +8019,7 @@
         <v>63</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>102</v>
@@ -5813,7 +8034,7 @@
         <v>15</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>339</v>
+        <v>417</v>
       </c>
       <c r="U30" s="4" t="s">
         <v>104</v>
@@ -5843,10 +8064,10 @@
         <v>1956.0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>340</v>
+        <v>418</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>341</v>
+        <v>419</v>
       </c>
       <c r="AG30" s="4" t="s">
         <v>203</v>
@@ -5867,10 +8088,10 @@
         <v>44658.48133689815</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>342</v>
+        <v>420</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>136</v>
@@ -5879,10 +8100,10 @@
         <v>143</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>345</v>
+        <v>423</v>
       </c>
       <c r="U31" s="4" t="s">
         <v>118</v>
@@ -5891,7 +8112,7 @@
         <v>70</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="AA31" s="4" t="s">
         <v>119</v>
@@ -5903,13 +8124,13 @@
         <v>1949.0</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>347</v>
+        <v>425</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
       <c r="AG31" s="4" t="s">
-        <v>349</v>
+        <v>427</v>
       </c>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
@@ -5942,7 +8163,7 @@
         <v>143</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>88</v>
@@ -5960,7 +8181,7 @@
         <v>1963.0</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="AG32" s="4" t="s">
         <v>181</v>
@@ -5984,7 +8205,7 @@
         <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>351</v>
+        <v>429</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>63</v>
@@ -6002,10 +8223,10 @@
         <v>87</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="U33" s="4" t="s">
         <v>104</v>
@@ -6035,10 +8256,10 @@
         <v>1969.0</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>353</v>
+        <v>431</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>354</v>
+        <v>432</v>
       </c>
       <c r="AG33" s="4" t="s">
         <v>203</v>
@@ -6062,7 +8283,7 @@
         <v>182</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>64</v>
@@ -6113,10 +8334,10 @@
         <v>1964.0</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="AG34" s="4" t="s">
         <v>203</v>
@@ -6140,7 +8361,7 @@
         <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>63</v>
@@ -6212,7 +8433,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>63</v>
@@ -6227,7 +8448,7 @@
         <v>87</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>15</v>
@@ -6251,7 +8472,7 @@
         <v>105</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="AB36" s="4" t="s">
         <v>73</v>
@@ -6263,10 +8484,10 @@
         <v>1972.0</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="AF36" s="4" t="s">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="AG36" s="4" t="s">
         <v>203</v>
@@ -6283,13 +8504,13 @@
         <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>363</v>
+        <v>441</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>86</v>
@@ -6298,13 +8519,13 @@
         <v>143</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>196</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="V37" s="4" t="s">
         <v>70</v>
@@ -6345,10 +8566,10 @@
         <v>44664.50016859954</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>287</v>
+        <v>369</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>64</v>
@@ -6381,10 +8602,10 @@
         <v>14</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>104</v>
@@ -6405,7 +8626,7 @@
         <v>105</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="AB38" s="4" t="s">
         <v>73</v>
@@ -6417,25 +8638,25 @@
         <v>1972.0</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="AF38" s="4" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="AG38" s="4" t="s">
-        <v>371</v>
+        <v>222</v>
       </c>
       <c r="AH38" s="4" t="s">
         <v>87</v>
       </c>
       <c r="AJ38" s="4" t="s">
-        <v>372</v>
+        <v>209</v>
       </c>
       <c r="AL38" s="4" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="AM38" s="4" t="s">
-        <v>372</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39">
@@ -6446,7 +8667,7 @@
         <v>99</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>374</v>
+        <v>450</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>64</v>
@@ -6473,7 +8694,7 @@
         <v>15</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>375</v>
+        <v>451</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>77</v>
@@ -6494,7 +8715,7 @@
         <v>105</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="AB39" s="4" t="s">
         <v>111</v>
@@ -6506,10 +8727,10 @@
         <v>1973.0</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>377</v>
+        <v>452</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>378</v>
+        <v>453</v>
       </c>
       <c r="AG39" s="4" t="s">
         <v>181</v>
@@ -6518,7 +8739,1108 @@
         <v>87</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>379</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>44675.56264060186</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>1954.0</v>
+      </c>
+      <c r="AE40" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF40" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG40" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ40" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>44675.950723483795</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>44680.92522350694</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>44684.79940416667</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>1969.0</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK43" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ43" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>44685.96977364583</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AB44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>1969.0</v>
+      </c>
+      <c r="AE44" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM44" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>44686.373830613426</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>1965.0</v>
+      </c>
+      <c r="AE45" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="AF45" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG45" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM45" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>44686.461710069445</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>1965.0</v>
+      </c>
+      <c r="AG46" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH46" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>44686.9100462037</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>1973.0</v>
+      </c>
+      <c r="AE47" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF47" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK47" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM47" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>44686.9555934838</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC48" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>1978.0</v>
+      </c>
+      <c r="AE48" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ48" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AL48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM48" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>44687.28445167824</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>1971.0</v>
+      </c>
+      <c r="AG49" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM49" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>44687.46564625</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA50" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>1967.0</v>
+      </c>
+      <c r="AE50" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="AG50" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN50" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>44687.765819594904</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z51" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>1966.0</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="AF51" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG51" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ51" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK51" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL51" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>44687.82796782407</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA52" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>1968.0</v>
+      </c>
+      <c r="AG52" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH52" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>44691.50702239583</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>1955.0</v>
+      </c>
+      <c r="AE53" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG53" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH53" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ53" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>44692.903646516206</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB54" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>1964.0</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ54" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AP54" s="4" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
